--- a/api/Lolos_Staff.xlsx
+++ b/api/Lolos_Staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryant\OneDrive\Dokumen\coolyeah\kerja\pengumuman_staff\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D4111-6B15-45E0-BF2B-C8AB3327DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2771195-15E5-4AAE-B655-A9279646C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{E4429801-B6AC-48C2-B1D6-10611A6B37E1}"/>
   </bookViews>
@@ -36,72 +36,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>id,nama,posisi,status</t>
-  </si>
-  <si>
-    <t>202601,Budi Santoso,Frontend Developer,Lolos</t>
-  </si>
-  <si>
-    <t>202602,Siti Aminah,UI/UX Designer,Lolos</t>
-  </si>
-  <si>
-    <t>202603,Rizky Pratama,Backend Developer,Lolos</t>
-  </si>
-  <si>
-    <t>202604,Dewi Lestari,Social Media Specialist,Lolos</t>
-  </si>
-  <si>
-    <t>202605,Ahmad Fauzi,Data Analyst,Lolos</t>
-  </si>
-  <si>
-    <t>202606,Lani Cahyani,Project Manager,Lolos</t>
-  </si>
-  <si>
-    <t>202607,Andi Wijaya,Quality Assurance,Lolos</t>
-  </si>
-  <si>
-    <t>202608,Siska Putri,Copywriter,Lolos</t>
-  </si>
-  <si>
-    <t>202609,Bambang Hermawan,DevOps Engineer,Lolos</t>
-  </si>
-  <si>
-    <t>202610,Eka Sari,Public Relations,Lolos</t>
-  </si>
-  <si>
-    <t>202611,Fajar Nugraha,Mobile Developer,Lolos</t>
-  </si>
-  <si>
-    <t>202612,Gita Permata,Product Owner,Lolos</t>
-  </si>
-  <si>
-    <t>202613,Hendra Kurnia,Security Engineer,Lolos</t>
-  </si>
-  <si>
-    <t>202614,Indah Wahyuni,Human Resources,Lolos</t>
-  </si>
-  <si>
-    <t>202615,Joko Susilo,System Administrator,Lolos</t>
-  </si>
-  <si>
-    <t>202616,Kiki Amalia,Content Creator,Lolos</t>
-  </si>
-  <si>
-    <t>202617,Lucky Hakim,SEO Specialist,Lolos</t>
-  </si>
-  <si>
-    <t>202618,Maya Sophia,Finance Officer,Lolos</t>
-  </si>
-  <si>
-    <t>202619,Nanda Saputra,Video Editor,Lolos</t>
-  </si>
-  <si>
-    <t>202620,Oki Setiawan,Legal Counsel,Lolos</t>
-  </si>
-  <si>
-    <t>5052231003,Hieronimus Bryant,Data Scientist,Lolos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+  <si>
+    <t>Budi Santoso</t>
+  </si>
+  <si>
+    <t>Frontend Developer</t>
+  </si>
+  <si>
+    <t>Lolos</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>posisi</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Siti Aminah</t>
+  </si>
+  <si>
+    <t>UI/UX Designer</t>
+  </si>
+  <si>
+    <t>Rizky Pratama</t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>Dewi Lestari</t>
+  </si>
+  <si>
+    <t>Social Media Specialist</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Lani Cahyani</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Andi Wijaya</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Siska Putri</t>
+  </si>
+  <si>
+    <t>Copywriter</t>
+  </si>
+  <si>
+    <t>Bambang Hermawan</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Eka Sari</t>
+  </si>
+  <si>
+    <t>Public Relations</t>
+  </si>
+  <si>
+    <t>Fajar Nugraha</t>
+  </si>
+  <si>
+    <t>Mobile Developer</t>
+  </si>
+  <si>
+    <t>Gita Permata</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Hendra Kurnia</t>
+  </si>
+  <si>
+    <t>Security Engineer</t>
+  </si>
+  <si>
+    <t>Indah Wahyuni</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Joko Susilo</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>Kiki Amalia</t>
+  </si>
+  <si>
+    <t>Content Creator</t>
+  </si>
+  <si>
+    <t>Lucky Hakim</t>
+  </si>
+  <si>
+    <t>SEO Specialist</t>
+  </si>
+  <si>
+    <t>Maya Sophia</t>
+  </si>
+  <si>
+    <t>Finance Officer</t>
+  </si>
+  <si>
+    <t>Nanda Saputra</t>
+  </si>
+  <si>
+    <t>Video Editor</t>
+  </si>
+  <si>
+    <t>Oki Setiawan</t>
+  </si>
+  <si>
+    <t>Legal Counsel</t>
+  </si>
+  <si>
+    <t>Hieronimus Bryant</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
   </si>
 </sst>
 </file>
@@ -473,122 +548,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67327D64-8E39-44BE-8325-E69B5097EFFE}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202601</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>202602</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202603</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>202604</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>202605</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>202606</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>202607</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>202608</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>202609</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>202610</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>202611</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>202612</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>202613</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>202614</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>202615</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>202616</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>202617</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>202618</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>202619</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>202620</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5052231003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
